--- a/1-数据清洗/preprocessed_data_stats.xlsx
+++ b/1-数据清洗/preprocessed_data_stats.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhx/Documents/Code/黑神话女性数据/1-数据清洗/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B4035-B561-0843-A67D-7205B95708F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId2"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
   <si>
     <t>Username</t>
   </si>
@@ -1832,17 +1841,26 @@
   </si>
   <si>
     <t>Empty Retweets</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>计数项:Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1850,8 +1868,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1890,24 +1915,4045 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="xjh" refreshedDate="45636.657844560184" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="604" xr:uid="{1F25E8CB-8EA2-A548-922B-992F5818579F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B605" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Username" numFmtId="0">
+      <sharedItems count="604">
+        <s v="2吉不是老邢"/>
+        <s v="卢诗翰"/>
+        <s v="周末双休不犯法"/>
+        <s v="伊利达雷之怒"/>
+        <s v="正宗爹味酱"/>
+        <s v="阑夕"/>
+        <s v="火鸡苗_"/>
+        <s v="白夜菌Dream"/>
+        <s v="里神楽"/>
+        <s v="达克鸭唐"/>
+        <s v="战斗力旺盛的爵爵"/>
+        <s v="香港文匯網"/>
+        <s v="王虎的舰桥"/>
+        <s v="人五_"/>
+        <s v="t0mbkeeper"/>
+        <s v="不厌读书中48615"/>
+        <s v="臭豆腐酿鲱鱼"/>
+        <s v="游戏圈资讯君"/>
+        <s v="翼尖小翅"/>
+        <s v="大大大餅干丶"/>
+        <s v="拆台CT"/>
+        <s v="自信是一门学问"/>
+        <s v="一粒糖豆DAYTOY"/>
+        <s v="公忠体国五十万"/>
+        <s v="陈哥反女拳"/>
+        <s v="游戏动漫小兔娱"/>
+        <s v="游戏君"/>
+        <s v="戴雨潇Dai"/>
+        <s v="_Reno_挚爱FF"/>
+        <s v="杉果娘Sonkwo"/>
+        <s v="米浴厨"/>
+        <s v="五五五五五5个五"/>
+        <s v="ENTP股大"/>
+        <s v="薯片全否定"/>
+        <s v="女性生存备忘录"/>
+        <s v="lost霾"/>
+        <s v="风咒"/>
+        <s v="游戏玩家张大飞"/>
+        <s v="南归孤夷"/>
+        <s v="福州摄影菌"/>
+        <s v="鱼杪MIA0"/>
+        <s v="包容万物恒河水"/>
+        <s v="_U妮_"/>
+        <s v="谜之免女郎X"/>
+        <s v="林中白狼"/>
+        <s v="娱闻蜀黍"/>
+        <s v="洛梅笙"/>
+        <s v="大喷菇与豌豆公主"/>
+        <s v="游戏更新了"/>
+        <s v="__Kek444"/>
+        <s v="从暗影中回归"/>
+        <s v="一之梨Lili"/>
+        <s v="饭圈女孩"/>
+        <s v="呱娱"/>
+        <s v="暴食症患者李舜生"/>
+        <s v="乌合麒麟"/>
+        <s v="游民星空"/>
+        <s v="无心简影"/>
+        <s v="RebirthCu1e"/>
+        <s v="贤莹定中"/>
+        <s v="摸鱼学教授美第奇"/>
+        <s v="stage1st宅社区"/>
+        <s v="咕咕天天咕咕"/>
+        <s v="食腐动物的搞笑日常"/>
+        <s v="国男大饭店烹炒主厨"/>
+        <s v="楠曦Nancycoco"/>
+        <s v="深海小天"/>
+        <s v="大众评议小广播"/>
+        <s v="大漂亮傻事"/>
+        <s v="了不起的羽毛君"/>
+        <s v="玩几把奶花"/>
+        <s v="鼠鼠更美味"/>
+        <s v="创作者DC"/>
+        <s v="秦蒙君"/>
+        <s v="蜷花蜷花"/>
+        <s v="乐子人也"/>
+        <s v="狂很子老"/>
+        <s v="森与森眠"/>
+        <s v="王故里"/>
+        <s v="游戏圈瓜王"/>
+        <s v="打开盲盒吓一跳"/>
+        <s v="好废的布偶猫"/>
+        <s v="士多啤椰梨"/>
+        <s v="无根流木"/>
+        <s v="又混了一天诶"/>
+        <s v="月刊勇者KuMa君"/>
+        <s v="中东总钻风"/>
+        <s v="胜利主义章北海"/>
+        <s v="Creamy蕉"/>
+        <s v="藿香正气烨"/>
+        <s v="水痕我_"/>
+        <s v="褚识斯"/>
+        <s v="大鹏守御千户所"/>
+        <s v="科技怪咖"/>
+        <s v="赛博十块鉴定所"/>
+        <s v="徐一邈"/>
+        <s v="竞圈风向标"/>
+        <s v="广结骟媛解离版"/>
+        <s v="soc职业技术学院"/>
+        <s v="Blade-黑铁桐人"/>
+        <s v="虎扑的步行街"/>
+        <s v="平原公子赵胜"/>
+        <s v="升值计"/>
+        <s v="明日头条"/>
+        <s v="美味滴小红薯"/>
+        <s v="是Alpha那个Al"/>
+        <s v="墨瞳电影"/>
+        <s v="八酱日常"/>
+        <s v="穆婷婷Monica"/>
+        <s v="反射弧超长星人影九"/>
+        <s v="绵绵野也"/>
+        <s v="彼之良水仙"/>
+        <s v="新浪新闻"/>
+        <s v="天涯社区"/>
+        <s v="林克斯先生Links"/>
+        <s v="谁动了我的地球绿卡"/>
+        <s v="小娱圈圈"/>
+        <s v="WBG-杨某某"/>
+        <s v="苏苏剧小屋"/>
+        <s v="未来科技"/>
+        <s v="太初真人"/>
+        <s v="椰啵舒舒"/>
+        <s v="林七七噶"/>
+        <s v="鬼谷子兔爷"/>
+        <s v="台湾傻事"/>
+        <s v="灰色魔毯Enterprise-NorthPoint"/>
+        <s v="狒狒的烦恼之路"/>
+        <s v="天舞宝轮2024"/>
+        <s v="HOPEfulove"/>
+        <s v="影视综艺君"/>
+        <s v="冰蛇陛下"/>
+        <s v="冷香联"/>
+        <s v="手残小编"/>
+        <s v="七只猫Seven"/>
+        <s v="一字吾名"/>
+        <s v="倒斗神瓶"/>
+        <s v="遇山之"/>
+        <s v="BuzzySun"/>
+        <s v="UCG一刀"/>
+        <s v="无期迷途"/>
+        <s v="江卓尔_大号"/>
+        <s v="糖醋肉吃饼干"/>
+        <s v="李楠或kkk"/>
+        <s v="窄河_"/>
+        <s v="MebiuW"/>
+        <s v="马上谈"/>
+        <s v="AutoportraitVanGogh"/>
+        <s v="快楽之源"/>
+        <s v="新浪AI"/>
+        <s v="挨踢牛魔王"/>
+        <s v="兔头学姐张铁根"/>
+        <s v="青城山中九节狼"/>
+        <s v="眠眠早日暴富"/>
+        <s v="鹧咕噜天"/>
+        <s v="是某幻每天都梦到的电子羊"/>
+        <s v="纯银V"/>
+        <s v="御史在野"/>
+        <s v="王玮晨"/>
+        <s v="说给电竞美少女们"/>
+        <s v="南风在北京"/>
+        <s v="浴中奇思"/>
+        <s v="屠龙的胭脂井"/>
+        <s v="百合吐槽菌"/>
+        <s v="WowkieLoveU"/>
+        <s v="我醉歌君和与父老晒渔蓑"/>
+        <s v="我是你酥"/>
+        <s v="章鱼养殖基地有话就说版"/>
+        <s v="斯库里"/>
+        <s v="科学家包大师"/>
+        <s v="叫我小张啊i"/>
+        <s v="贞德蘸酱"/>
+        <s v="嘻笑堂HipHop"/>
+        <s v="秦二两99"/>
+        <s v="游戏团"/>
+        <s v="近卫步兵师"/>
+        <s v="伯阳先生-段本司"/>
+        <s v="只有我们还做着地球村的梦了"/>
+        <s v="围场表情包"/>
+        <s v="鸢惡淚诗"/>
+        <s v="顺直笑话放送"/>
+        <s v="战争特典铁血文库主编"/>
+        <s v="参考消息"/>
+        <s v="魔仙奥利奥"/>
+        <s v="怪叔叔叔叔叔"/>
+        <s v="Jillyj-"/>
+        <s v="luckincoffee瑞幸咖啡"/>
+        <s v="别梦依稀笑逝川"/>
+        <s v="谢家初八"/>
+        <s v="驰名双标菌"/>
+        <s v="深龚爆_Biu"/>
+        <s v="小嘛小二浪呦"/>
+        <s v="忘词大王林小喜"/>
+        <s v="格崽限定"/>
+        <s v="帽哥basa"/>
+        <s v="贴小君"/>
+        <s v="央视新闻"/>
+        <s v="LR-局外人"/>
+        <s v="骂骂咧咧的猫"/>
+        <s v="FISH余昌宇"/>
+        <s v="笨蛋不累bdbl"/>
+        <s v="冬亚"/>
+        <s v="MythZHL"/>
+        <s v="白岩asuka"/>
+        <s v="WritingPrompts"/>
+        <s v="PPPinkPony"/>
+        <s v="六灭剑二十四"/>
+        <s v="慢跑_885"/>
+        <s v="鹿鹿鹿鹿秋"/>
+        <s v="齐酒麋香"/>
+        <s v="寰球镜头"/>
+        <s v="ZERO小志96"/>
+        <s v="弟潮流"/>
+        <s v="yu圈小渔"/>
+        <s v="持续疲惫的脑袋"/>
+        <s v="Ninimaik"/>
+        <s v="姐妹撒泼指北"/>
+        <s v="狐狸与猫的日记"/>
+        <s v="极客视线"/>
+        <s v="江浙沪第二深情"/>
+        <s v="-要炸鸡没有啤酒-"/>
+        <s v="007黛玉"/>
+        <s v="来份蜂蜜味的噗"/>
+        <s v="头条新闻"/>
+        <s v="迎十里"/>
+        <s v="新世纪吸貓战士9"/>
+        <s v="锋潮科技"/>
+        <s v="游戏动力"/>
+        <s v="山月不系舟"/>
+        <s v="甜筒巧克冰"/>
+        <s v="搜狐新闻"/>
+        <s v="青野清禾"/>
+        <s v="蒲熠星的直播间"/>
+        <s v="黑宫轮电影"/>
+        <s v="电影票房"/>
+        <s v="琉玄"/>
+        <s v="风吹星雨落"/>
+        <s v="多看书多睡觉_"/>
+        <s v="飛鳥過平川"/>
+        <s v="打奥特曼de小怪兽"/>
+        <s v="上帝之鹰_5zn"/>
+        <s v="手游娘"/>
+        <s v="咸鱼表演艺术家"/>
+        <s v="V闪闪"/>
+        <s v="SCUT魏剑峰"/>
+        <s v="扶灯_"/>
+        <s v="消失的旧时光_上海1943"/>
+        <s v="好飒的小姐姐"/>
+        <s v="战甲装研菌"/>
+        <s v="宝宝雪豹抱抱"/>
+        <s v="爱丁堡的孤独女王"/>
+        <s v="冷面小青龙吃不吃冷面"/>
+        <s v="绿茶发言大赏"/>
+        <s v="老子永远喜欢狗天大"/>
+        <s v="弹跳海豹人塔诺西"/>
+        <s v="娱乐榜姐"/>
+        <s v="游戏自来水"/>
+        <s v="音频怪物"/>
+        <s v="头像可爱人超凶"/>
+        <s v="西右左东"/>
+        <s v="翻斗幼儿园抗把子"/>
+        <s v="黑神话之悟空"/>
+        <s v="是冯家彪呢"/>
+        <s v="光与偷之贱"/>
+        <s v="小狼Aaron"/>
+        <s v="永远不做他们的血包"/>
+        <s v="阿平YVES"/>
+        <s v="世界系少狗椿"/>
+        <s v="龙舌兰放克"/>
+        <s v="甜椒_Jo"/>
+        <s v="汪有"/>
+        <s v="还要打工四十一年QAQ"/>
+        <s v="花与星共眠"/>
+        <s v="哦哟宝剑呐"/>
+        <s v="土味街拍大赏"/>
+        <s v="二火山"/>
+        <s v="我才没有秃呢"/>
+        <s v="耿向顺"/>
+        <s v="萝贝贝"/>
+        <s v="可可电影"/>
+        <s v="冷知识bot"/>
+        <s v="老刀99"/>
+        <s v="李小粥的茶水间"/>
+        <s v="欧阳秋叶"/>
+        <s v="牛哥碎念"/>
+        <s v="果酱生产基地"/>
+        <s v="柳生吞1万根针"/>
+        <s v="耽于美色"/>
+        <s v="苏打慢"/>
+        <s v="聆镜"/>
+        <s v="狗狗蛇_"/>
+        <s v="受78924"/>
+        <s v="蓝爵Yoyo"/>
+        <s v="瞎七八潮"/>
+        <s v="麻辣女人张建刚"/>
+        <s v="扎西德勒·天珠收藏"/>
+        <s v="风闻社区"/>
+        <s v="共赴13年之约"/>
+        <s v="归龙潮"/>
+        <s v="会魔法的卢卡斯"/>
+        <s v="言青小夫子"/>
+        <s v="电竞召唤师"/>
+        <s v="新浪游戏"/>
+        <s v="红星新闻"/>
+        <s v="背着手满大街溜达"/>
+        <s v="重生之品客同人女怎么你了"/>
+        <s v="前HR本人"/>
+        <s v="郑翔Zard-"/>
+        <s v="Zzzzzisss"/>
+        <s v="电影控控"/>
+        <s v="牛奶计划"/>
+        <s v="只是平平无奇恋爱小天才喽"/>
+        <s v="兜兜开迪"/>
+        <s v="退役鸭王"/>
+        <s v="辣椒炒宇宙"/>
+        <s v="嗷嗷啊不"/>
+        <s v="被我骂那就是你的不对了"/>
+        <s v="混沌与概率1997"/>
+        <s v="胖哥李小鹿"/>
+        <s v="九荒揽月"/>
+        <s v="沈奕斐"/>
+        <s v="局长大人辛苦了"/>
+        <s v="圣母玛丽东"/>
+        <s v="LBS48"/>
+        <s v="爹者荣耀"/>
+        <s v="塞上李云中"/>
+        <s v="香草元宵"/>
+        <s v="你的张悬"/>
+        <s v="宁思潇潇"/>
+        <s v="皎若琉璃月"/>
+        <s v="三联生活周刊"/>
+        <s v="Fructose97"/>
+        <s v="浑噩欧耶木有记录"/>
+        <s v="纱布蓝"/>
+        <s v="PerAmicaSilentiaLunae"/>
+        <s v="虎爸周星"/>
+        <s v="阿卡宇航"/>
+        <s v="CS_墨暝"/>
+        <s v="滔搏电子竞技俱乐部"/>
+        <s v="江宁婆婆"/>
+        <s v="环球时报"/>
+        <s v="香草加柠檬味拿铁"/>
+        <s v="向着风和他的方向奔跑"/>
+        <s v="隐kakushi"/>
+        <s v="落在最后的马拉松选手"/>
+        <s v="未为D"/>
+        <s v="差评君"/>
+        <s v="心狠手辣小小耳"/>
+        <s v="孙悟空会跳舞"/>
+        <s v="崔紫剑"/>
+        <s v="超级游文化"/>
+        <s v="无尾楼"/>
+        <s v="翎子rikako"/>
+        <s v="小狗过路"/>
+        <s v="娜娜子小朋友"/>
+        <s v="淘宝"/>
+        <s v="老公我想要没有水印的"/>
+        <s v="一玶海岸"/>
+        <s v="在珉诗"/>
+        <s v="观察者网"/>
+        <s v="学不会玩滑板"/>
+        <s v="真正的酸甜可乐"/>
+        <s v="杰尼龟说"/>
+        <s v="理塘丁真"/>
+        <s v="十倍速追星少女"/>
+        <s v="如如可"/>
+        <s v="社畜八卦控"/>
+        <s v="齐苡_"/>
+        <s v="逾期四月"/>
+        <s v="ppxndhxgsyxt"/>
+        <s v="不及昕辰"/>
+        <s v="尐飛电影"/>
+        <s v="闲云杯中酒"/>
+        <s v="噜啦嘞噜哇啦吧"/>
+        <s v="FPX队霸doinb"/>
+        <s v="适合拥抱的菅原同学"/>
+        <s v="致未来的那个谁"/>
+        <s v="朝如雪ZRX"/>
+        <s v="宋辛博"/>
+        <s v="在雪中等"/>
+        <s v="Rb86-北红豆"/>
+        <s v="小黑兔柴斯卡"/>
+        <s v="胖剩想吃饭o"/>
+        <s v="樱桃本色1997"/>
+        <s v="苏酿酿呀"/>
+        <s v="来亿口小冰糕"/>
+        <s v="漫逃轨迹"/>
+        <s v="一条蓬松的狗"/>
+        <s v="Susu苏苏36"/>
+        <s v="98兔子"/>
+        <s v="三观一般烂人"/>
+        <s v="叉小包"/>
+        <s v="Luubi-"/>
+        <s v="色T就是色T啊_t"/>
+        <s v="宅女bot"/>
+        <s v="游历丁丁"/>
+        <s v="深海大饭店客人甲"/>
+        <s v="_花月影_"/>
+        <s v="骆歆同学"/>
+        <s v="小虾才没香喷喷"/>
+        <s v="自信学院"/>
+        <s v="HAMESOME_GAY"/>
+        <s v="怂的载体"/>
+        <s v="设计青年"/>
+        <s v="Galesunshine_"/>
+        <s v="我是大桶大大卷_"/>
+        <s v="唯小鹿主义"/>
+        <s v="黄鱼Veda"/>
+        <s v="赤鱼在哪里"/>
+        <s v="穿行于明日之歌"/>
+        <s v="帕拉迪国立喆学系主任"/>
+        <s v="橘味土拨鼠"/>
+        <s v="Lancy大梦想家"/>
+        <s v="蜜三刀蜜三刀"/>
+        <s v="ZEROzzzzzzzzzzzzzzzzzzzz"/>
+        <s v="芒果妈妈"/>
+        <s v="疯兔子的爱丽丝"/>
+        <s v="朱伟老师"/>
+        <s v="央视网"/>
+        <s v="狸子Neazle再次转生"/>
+        <s v="楼一_"/>
+        <s v="高级马赛克"/>
+        <s v="半钱-有酒醉"/>
+        <s v="玩泥沙大姐姐"/>
+        <s v="陈幼桉"/>
+        <s v="鹤道长"/>
+        <s v="世界是个大厕所"/>
+        <s v="秦书宝不夜汪"/>
+        <s v="狮子头萌萌"/>
+        <s v="三思逍遥"/>
+        <s v="Ustiniandadadada"/>
+        <s v="我有很多偶像的"/>
+        <s v="代入是人生一大幸事"/>
+        <s v="雷希颖"/>
+        <s v="利维坦一号机"/>
+        <s v="楠山禅"/>
+        <s v="今渡百川"/>
+        <s v="工长君"/>
+        <s v="我的从良日记"/>
+        <s v="晋江-潇湘碧影"/>
+        <s v="-我再也不玩抽象了-"/>
+        <s v="提刀探花在缅北"/>
+        <s v="倍舒特官方微博"/>
+        <s v="PACT派克特"/>
+        <s v="有娱说娱"/>
+        <s v="狗派天下第一"/>
+        <s v="烟波人长安"/>
+        <s v="梨视频"/>
+        <s v="iBingo"/>
+        <s v="SwagFxxk_"/>
+        <s v="特装型安克酱"/>
+        <s v="梦想吃烧烤"/>
+        <s v="种斌Marco"/>
+        <s v="恋琳ove"/>
+        <s v="正观新闻"/>
+        <s v="阿海就是厉害"/>
+        <s v="张书乐"/>
+        <s v="召唤师Park"/>
+        <s v="有盐电影"/>
+        <s v="baddiesimonsshun"/>
+        <s v="FIMO官方"/>
+        <s v="不能嚯奶茶"/>
+        <s v="游戏批评"/>
+        <s v="owbdoznwodnskd"/>
+        <s v="我是喻黄楚路的狗"/>
+        <s v="nosunae_520"/>
+        <s v="我是女主它是皮套贩子"/>
+        <s v="阿极的小朋友"/>
+        <s v="ALLY李易臻"/>
+        <s v="猫咪森林el"/>
+        <s v="宇宙不好混"/>
+        <s v="夺命脆脆鲨大侠"/>
+        <s v="歌木木朵"/>
+        <s v="星光下的盛夏"/>
+        <s v="不知名的旺来头"/>
+        <s v="IT观察猿"/>
+        <s v="Lzyis_74"/>
+        <s v="汪有啥都有"/>
+        <s v="中国美术学院"/>
+        <s v="今港春绿"/>
+        <s v="LoveislikelearningFrench"/>
+        <s v="姜婵-"/>
+        <s v="tititititimaotou"/>
+        <s v="东方财经"/>
+        <s v="弹性大白兔"/>
+        <s v="凤凰网科技"/>
+        <s v="地瓜熊老六"/>
+        <s v="牙木木木木木"/>
+        <s v="这空气好喜欢"/>
+        <s v="子午侠士"/>
+        <s v="不完全淑女播客"/>
+        <s v="下雨天不要讲鬼故事"/>
+        <s v="江湖一切安好"/>
+        <s v="Splendor_y"/>
+        <s v="一碗星饭"/>
+        <s v="春愁__"/>
+        <s v="百亿姐的好物分享"/>
+        <s v="光与夜之恋"/>
+        <s v="风铃厦"/>
+        <s v="洱海弥"/>
+        <s v="我苹果牛"/>
+        <s v="弗里达烧衣"/>
+        <s v="紫金山上听风吟"/>
+        <s v="剧荒终结"/>
+        <s v="我有恋哥癖-"/>
+        <s v="铳鱼思渊"/>
+        <s v="用户7847477591"/>
+        <s v="齐司礼-回归"/>
+        <s v="只谈风月猫"/>
+        <s v="好吃滴小红薯"/>
+        <s v="极目新闻"/>
+        <s v="KZyukoh"/>
+        <s v="王骁Albert"/>
+        <s v="全职高手官微"/>
+        <s v="JIMMYs动画剧场"/>
+        <s v="游戏圈揭秘"/>
+        <s v="总有一天都会变好的"/>
+        <s v="锦鲤六宝"/>
+        <s v="新浪财经"/>
+        <s v="地雷系秀萝"/>
+        <s v="赵瞾说事"/>
+        <s v="重庆广电第1眼"/>
+        <s v="肥美哒Mia"/>
+        <s v="回看千里暮云平"/>
+        <s v="废斯先生"/>
+        <s v="万学之海"/>
+        <s v="杭州电视台综合频道"/>
+        <s v="社会化营销案例库"/>
+        <s v="取名好烦hh"/>
+        <s v="Ambessa"/>
+        <s v="鱼子西DD"/>
+        <s v="苏晓驰10411"/>
+        <s v="这瓜沙沙雕雕的保甜"/>
+        <s v="-解冬-"/>
+        <s v="小王要努力8_8"/>
+        <s v="汪靓芬"/>
+        <s v="毛笔爱吃火龙果"/>
+        <s v="飘先生Pp"/>
+        <s v="samori-saka"/>
+        <s v="狂龙神骑士"/>
+        <s v="娱乐圈合伙人"/>
+        <s v="世界贸易组织WTO"/>
+        <s v="易受惊体质_"/>
+        <s v="安好心"/>
+        <s v="尹口羊Erfolg"/>
+        <s v="菲菲露露aa"/>
+        <s v="峰狂输出"/>
+        <s v="执笔抒緣夢"/>
+        <s v="Rinie0708"/>
+        <s v="陈生大王"/>
+        <s v="妹子我真不耍抖"/>
+        <s v="吴真话影事"/>
+        <s v="阿程不想睡"/>
+        <s v="风云学会陈经"/>
+        <s v="uu可乐_"/>
+        <s v="简书阳"/>
+        <s v="妇女之敌罗严塔"/>
+        <s v="蹦蹦跳跳的阿龙"/>
+        <s v="好大的奕"/>
+        <s v="艾丽丝Alisa"/>
+        <s v="hjk13688"/>
+        <s v="生草字幕组"/>
+        <s v="Wosrtwoman"/>
+        <s v="赵捏捏20863"/>
+        <s v="脑仁炖菜"/>
+        <s v="王人可Reno"/>
+        <s v="雨已经下了他爹的一整天"/>
+        <s v="石家庄中院"/>
+        <s v="譞皇"/>
+        <s v="于家s妈"/>
+        <s v="楠山秀"/>
+        <s v="正直的磊哥"/>
+        <s v="工作日自然醒"/>
+        <s v="领事闲谈"/>
+        <s v="香菜大王_csc"/>
+        <s v="杜淦天"/>
+        <s v="Ahri_Yo"/>
+        <s v="快快快快快毕毕毕毕业"/>
+        <s v="无病息灾暴富发财"/>
+        <s v="吾六一061"/>
+        <s v="以闪亮之名"/>
+        <s v="会玩君wpgmedia"/>
+        <s v="蒜蒜收藏夹"/>
+        <s v="长颈鹿滚行"/>
+        <s v="老北京_Gem"/>
+        <s v="微天下"/>
+        <s v="老派战斗员"/>
+        <s v="五粮液"/>
+        <s v="听月掌柜"/>
+        <s v="倩男游神"/>
+        <s v="随笔视频"/>
+        <s v="金爐慧靈香"/>
+        <s v="百度搜索"/>
+        <s v="灵蛇女媚cc"/>
+        <s v="紺鯨魚-KONKUJIRA"/>
+        <s v="兲虎"/>
+        <s v="北川知花"/>
+        <s v="何小沁"/>
+        <s v="水灵灵的油条"/>
+        <s v="zzzzz_张艺上"/>
+        <s v="冰璃c公子"/>
+        <s v="屑女人厨"/>
+        <s v="想你的风吹到了kpop"/>
+        <s v="白华胤"/>
+        <s v="Empty Retweets"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="43741" count="63">
+        <n v="43741"/>
+        <n v="1019"/>
+        <n v="673"/>
+        <n v="624"/>
+        <n v="353"/>
+        <n v="311"/>
+        <n v="310"/>
+        <n v="225"/>
+        <n v="214"/>
+        <n v="170"/>
+        <n v="138"/>
+        <n v="131"/>
+        <n v="130"/>
+        <n v="129"/>
+        <n v="128"/>
+        <n v="124"/>
+        <n v="101"/>
+        <n v="96"/>
+        <n v="85"/>
+        <n v="77"/>
+        <n v="74"/>
+        <n v="73"/>
+        <n v="72"/>
+        <n v="68"/>
+        <n v="66"/>
+        <n v="63"/>
+        <n v="60"/>
+        <n v="56"/>
+        <n v="53"/>
+        <n v="50"/>
+        <n v="47"/>
+        <n v="45"/>
+        <n v="44"/>
+        <n v="42"/>
+        <n v="40"/>
+        <n v="39"/>
+        <n v="37"/>
+        <n v="31"/>
+        <n v="29"/>
+        <n v="28"/>
+        <n v="25"/>
+        <n v="24"/>
+        <n v="22"/>
+        <n v="21"/>
+        <n v="18"/>
+        <n v="17"/>
+        <n v="16"/>
+        <n v="15"/>
+        <n v="14"/>
+        <n v="13"/>
+        <n v="12"/>
+        <n v="11"/>
+        <n v="10"/>
+        <n v="9"/>
+        <n v="8"/>
+        <n v="7"/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="1"/>
+        <n v="985"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="604">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="238"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="240"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="244"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="246"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="247"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="248"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="249"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="250"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="252"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="253"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="255"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="256"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="257"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="258"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="259"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="261"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="262"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="263"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="264"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="265"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="266"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="267"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="268"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="269"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="270"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="271"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="272"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="273"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="274"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="276"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="277"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="278"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="279"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="280"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="282"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="283"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="285"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="286"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="288"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="289"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="290"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="291"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="292"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="293"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="294"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="295"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="296"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="297"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="298"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="299"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="300"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="301"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="302"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="303"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="304"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="305"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="306"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="307"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="308"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="309"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="310"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="311"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="313"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="326"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="327"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="344"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="346"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="347"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="348"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="349"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="350"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="351"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="352"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="353"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="354"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="355"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="356"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="357"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="358"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="359"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="360"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="361"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="362"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="363"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="364"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="365"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="366"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="367"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="368"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="369"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="370"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="371"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="372"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="373"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="374"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="375"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="376"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="377"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="378"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="379"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="380"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="381"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="382"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="383"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="384"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="385"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="386"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="387"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="388"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="389"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="390"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="391"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="392"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="393"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="394"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="395"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="396"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="397"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="398"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="399"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="400"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="401"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="402"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="403"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="404"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="405"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="406"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="407"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="408"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="409"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="410"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="411"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="412"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="413"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="414"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="415"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="416"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="417"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="418"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="419"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="420"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="421"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="422"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="423"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="424"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="425"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="426"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="427"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="428"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="429"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="430"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="431"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="432"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="433"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="434"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="435"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="436"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="437"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="438"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="439"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="440"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="441"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="442"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="443"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="444"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="445"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="446"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="447"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="448"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="449"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="450"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="451"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="452"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="453"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="454"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="455"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="456"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="457"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="458"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="459"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="460"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="461"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="462"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="463"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="464"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="465"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="466"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="467"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="468"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="469"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="470"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="471"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="472"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="473"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="474"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="475"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="476"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="477"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="478"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="479"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="480"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="481"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="482"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="483"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="484"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="485"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="486"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="487"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="488"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="489"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="490"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="491"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="492"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="493"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="494"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="495"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="496"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="497"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="498"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="499"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="500"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="501"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="502"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="503"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="504"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="505"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="506"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="507"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="508"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="509"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="510"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="511"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="512"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="513"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="514"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="515"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="516"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="517"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="518"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="519"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="520"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="521"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="522"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="523"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="524"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="525"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="526"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="527"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="528"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="529"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="530"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="531"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="532"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="533"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="534"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="535"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="536"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="537"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="538"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="539"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="540"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="541"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="542"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="543"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="544"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="545"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="546"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="547"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="548"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="549"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="550"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="551"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="552"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="553"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="554"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="555"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="556"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="557"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="558"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="559"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="560"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="561"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="562"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="563"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="564"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="565"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="566"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="567"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="568"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="569"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="570"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="571"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="572"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="573"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="574"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="575"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="576"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="577"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="578"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="579"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="580"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="581"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="582"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="583"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="584"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="585"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="586"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="587"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="588"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="589"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="590"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="591"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="592"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="593"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="594"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="595"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="596"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="597"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="598"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="599"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="600"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="601"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="602"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="603"/>
+    <x v="62"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{720CC024-D579-F043-8F12-5CBB2ABD2BD6}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:G70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField showAll="0">
+      <items count="605">
+        <item x="49"/>
+        <item x="28"/>
+        <item x="42"/>
+        <item x="396"/>
+        <item x="220"/>
+        <item x="0"/>
+        <item x="388"/>
+        <item x="575"/>
+        <item x="467"/>
+        <item x="528"/>
+        <item x="146"/>
+        <item x="458"/>
+        <item x="99"/>
+        <item x="137"/>
+        <item x="88"/>
+        <item x="336"/>
+        <item x="603"/>
+        <item x="32"/>
+        <item x="459"/>
+        <item x="198"/>
+        <item x="373"/>
+        <item x="330"/>
+        <item x="403"/>
+        <item x="400"/>
+        <item x="559"/>
+        <item x="128"/>
+        <item x="447"/>
+        <item x="474"/>
+        <item x="184"/>
+        <item x="513"/>
+        <item x="510"/>
+        <item x="411"/>
+        <item x="322"/>
+        <item x="35"/>
+        <item x="479"/>
+        <item x="196"/>
+        <item x="185"/>
+        <item x="391"/>
+        <item x="475"/>
+        <item x="144"/>
+        <item x="201"/>
+        <item x="214"/>
+        <item x="464"/>
+        <item x="462"/>
+        <item x="442"/>
+        <item x="333"/>
+        <item x="204"/>
+        <item x="368"/>
+        <item x="379"/>
+        <item x="58"/>
+        <item x="547"/>
+        <item x="537"/>
+        <item x="243"/>
+        <item x="98"/>
+        <item x="492"/>
+        <item x="61"/>
+        <item x="387"/>
+        <item x="448"/>
+        <item x="14"/>
+        <item x="481"/>
+        <item x="138"/>
+        <item x="429"/>
+        <item x="553"/>
+        <item x="242"/>
+        <item x="117"/>
+        <item x="561"/>
+        <item x="163"/>
+        <item x="203"/>
+        <item x="212"/>
+        <item x="413"/>
+        <item x="210"/>
+        <item x="598"/>
+        <item x="307"/>
+        <item x="551"/>
+        <item x="454"/>
+        <item x="466"/>
+        <item x="335"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="558"/>
+        <item x="249"/>
+        <item x="542"/>
+        <item x="314"/>
+        <item x="107"/>
+        <item x="602"/>
+        <item x="202"/>
+        <item x="7"/>
+        <item x="591"/>
+        <item x="162"/>
+        <item x="495"/>
+        <item x="421"/>
+        <item x="41"/>
+        <item x="248"/>
+        <item x="54"/>
+        <item x="595"/>
+        <item x="303"/>
+        <item x="441"/>
+        <item x="315"/>
+        <item x="199"/>
+        <item x="556"/>
+        <item x="111"/>
+        <item x="186"/>
+        <item x="599"/>
+        <item x="130"/>
+        <item x="175"/>
+        <item x="369"/>
+        <item x="460"/>
+        <item x="489"/>
+        <item x="15"/>
+        <item x="473"/>
+        <item x="181"/>
+        <item x="390"/>
+        <item x="345"/>
+        <item x="20"/>
+        <item x="349"/>
+        <item x="376"/>
+        <item x="24"/>
+        <item x="548"/>
+        <item x="423"/>
+        <item x="188"/>
+        <item x="213"/>
+        <item x="407"/>
+        <item x="504"/>
+        <item x="16"/>
+        <item x="91"/>
+        <item x="408"/>
+        <item x="72"/>
+        <item x="494"/>
+        <item x="155"/>
+        <item x="50"/>
+        <item x="348"/>
+        <item x="9"/>
+        <item x="238"/>
+        <item x="80"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="92"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="431"/>
+        <item x="27"/>
+        <item x="286"/>
+        <item x="253"/>
+        <item x="483"/>
+        <item x="135"/>
+        <item x="485"/>
+        <item x="518"/>
+        <item x="211"/>
+        <item x="300"/>
+        <item x="308"/>
+        <item x="233"/>
+        <item x="323"/>
+        <item x="482"/>
+        <item x="200"/>
+        <item x="311"/>
+        <item x="574"/>
+        <item x="236"/>
+        <item x="470"/>
+        <item x="498"/>
+        <item x="274"/>
+        <item x="259"/>
+        <item x="109"/>
+        <item x="52"/>
+        <item x="237"/>
+        <item x="544"/>
+        <item x="521"/>
+        <item x="126"/>
+        <item x="523"/>
+        <item x="235"/>
+        <item x="497"/>
+        <item x="295"/>
+        <item x="552"/>
+        <item x="36"/>
+        <item x="415"/>
+        <item x="545"/>
+        <item x="225"/>
+        <item x="484"/>
+        <item x="500"/>
+        <item x="244"/>
+        <item x="39"/>
+        <item x="555"/>
+        <item x="593"/>
+        <item x="420"/>
+        <item x="471"/>
+        <item x="192"/>
+        <item x="276"/>
+        <item x="436"/>
+        <item x="571"/>
+        <item x="23"/>
+        <item x="296"/>
+        <item x="289"/>
+        <item x="444"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item x="183"/>
+        <item x="358"/>
+        <item x="262"/>
+        <item x="496"/>
+        <item x="97"/>
+        <item x="297"/>
+        <item x="123"/>
+        <item x="64"/>
+        <item x="284"/>
+        <item x="270"/>
+        <item x="525"/>
+        <item x="508"/>
+        <item x="557"/>
+        <item x="81"/>
+        <item x="246"/>
+        <item x="596"/>
+        <item x="424"/>
+        <item x="232"/>
+        <item x="260"/>
+        <item x="302"/>
+        <item x="216"/>
+        <item x="334"/>
+        <item x="100"/>
+        <item x="271"/>
+        <item x="339"/>
+        <item x="209"/>
+        <item x="406"/>
+        <item x="125"/>
+        <item x="522"/>
+        <item x="298"/>
+        <item x="580"/>
+        <item x="331"/>
+        <item x="316"/>
+        <item x="6"/>
+        <item x="89"/>
+        <item x="217"/>
+        <item x="509"/>
+        <item x="554"/>
+        <item x="491"/>
+        <item x="338"/>
+        <item x="218"/>
+        <item x="140"/>
+        <item x="480"/>
+        <item x="328"/>
+        <item x="169"/>
+        <item x="370"/>
+        <item x="361"/>
+        <item x="215"/>
+        <item x="532"/>
+        <item x="435"/>
+        <item x="478"/>
+        <item x="590"/>
+        <item x="516"/>
+        <item x="174"/>
+        <item x="438"/>
+        <item x="96"/>
+        <item x="318"/>
+        <item x="320"/>
+        <item x="410"/>
+        <item x="502"/>
+        <item x="93"/>
+        <item x="168"/>
+        <item x="278"/>
+        <item x="576"/>
+        <item x="147"/>
+        <item x="76"/>
+        <item x="538"/>
+        <item x="313"/>
+        <item x="221"/>
+        <item x="384"/>
+        <item x="5"/>
+        <item x="291"/>
+        <item x="583"/>
+        <item x="280"/>
+        <item x="355"/>
+        <item x="585"/>
+        <item x="252"/>
+        <item x="75"/>
+        <item x="69"/>
+        <item x="432"/>
+        <item x="250"/>
+        <item x="131"/>
+        <item x="279"/>
+        <item x="418"/>
+        <item x="446"/>
+        <item x="142"/>
+        <item x="281"/>
+        <item x="8"/>
+        <item x="362"/>
+        <item x="433"/>
+        <item x="452"/>
+        <item x="114"/>
+        <item x="122"/>
+        <item x="44"/>
+        <item x="592"/>
+        <item x="288"/>
+        <item x="351"/>
+        <item x="572"/>
+        <item x="234"/>
+        <item x="285"/>
+        <item x="205"/>
+        <item x="267"/>
+        <item x="419"/>
+        <item x="372"/>
+        <item x="1"/>
+        <item x="207"/>
+        <item x="277"/>
+        <item x="46"/>
+        <item x="397"/>
+        <item x="343"/>
+        <item x="251"/>
+        <item x="293"/>
+        <item x="145"/>
+        <item x="197"/>
+        <item x="385"/>
+        <item x="206"/>
+        <item x="414"/>
+        <item x="468"/>
+        <item x="535"/>
+        <item x="193"/>
+        <item x="104"/>
+        <item x="549"/>
+        <item x="450"/>
+        <item x="43"/>
+        <item x="30"/>
+        <item x="412"/>
+        <item x="152"/>
+        <item x="110"/>
+        <item x="103"/>
+        <item x="60"/>
+        <item x="182"/>
+        <item x="106"/>
+        <item x="108"/>
+        <item x="353"/>
+        <item x="159"/>
+        <item x="38"/>
+        <item x="434"/>
+        <item x="569"/>
+        <item x="65"/>
+        <item x="563"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="283"/>
+        <item x="309"/>
+        <item x="34"/>
+        <item x="272"/>
+        <item x="282"/>
+        <item x="409"/>
+        <item x="317"/>
+        <item x="381"/>
+        <item x="536"/>
+        <item x="101"/>
+        <item x="231"/>
+        <item x="133"/>
+        <item x="208"/>
+        <item x="506"/>
+        <item x="366"/>
+        <item x="305"/>
+        <item x="588"/>
+        <item x="172"/>
+        <item x="73"/>
+        <item x="426"/>
+        <item x="151"/>
+        <item x="230"/>
+        <item x="527"/>
+        <item x="512"/>
+        <item x="74"/>
+        <item x="13"/>
+        <item x="364"/>
+        <item x="324"/>
+        <item x="94"/>
+        <item x="389"/>
+        <item x="329"/>
+        <item x="428"/>
+        <item x="392"/>
+        <item x="77"/>
+        <item x="332"/>
+        <item x="227"/>
+        <item x="29"/>
+        <item x="239"/>
+        <item x="402"/>
+        <item x="365"/>
+        <item x="526"/>
+        <item x="189"/>
+        <item x="395"/>
+        <item x="66"/>
+        <item x="319"/>
+        <item x="102"/>
+        <item x="560"/>
+        <item x="321"/>
+        <item x="87"/>
+        <item x="427"/>
+        <item x="363"/>
+        <item x="566"/>
+        <item x="63"/>
+        <item x="82"/>
+        <item x="540"/>
+        <item x="425"/>
+        <item x="266"/>
+        <item x="105"/>
+        <item x="261"/>
+        <item x="154"/>
+        <item x="374"/>
+        <item x="132"/>
+        <item x="240"/>
+        <item x="290"/>
+        <item x="71"/>
+        <item x="33"/>
+        <item x="115"/>
+        <item x="90"/>
+        <item x="597"/>
+        <item x="179"/>
+        <item x="158"/>
+        <item x="167"/>
+        <item x="401"/>
+        <item x="377"/>
+        <item x="229"/>
+        <item x="287"/>
+        <item x="383"/>
+        <item x="118"/>
+        <item x="530"/>
+        <item x="581"/>
+        <item x="589"/>
+        <item x="347"/>
+        <item x="124"/>
+        <item x="120"/>
+        <item x="141"/>
+        <item x="337"/>
+        <item x="354"/>
+        <item x="449"/>
+        <item x="440"/>
+        <item x="127"/>
+        <item x="113"/>
+        <item x="594"/>
+        <item x="268"/>
+        <item x="228"/>
+        <item x="194"/>
+        <item x="587"/>
+        <item x="222"/>
+        <item x="257"/>
+        <item x="161"/>
+        <item x="273"/>
+        <item x="150"/>
+        <item x="312"/>
+        <item x="70"/>
+        <item x="422"/>
+        <item x="524"/>
+        <item x="534"/>
+        <item x="269"/>
+        <item x="476"/>
+        <item x="78"/>
+        <item x="12"/>
+        <item x="564"/>
+        <item x="157"/>
+        <item x="511"/>
+        <item x="191"/>
+        <item x="584"/>
+        <item x="177"/>
+        <item x="405"/>
+        <item x="119"/>
+        <item x="344"/>
+        <item x="275"/>
+        <item x="437"/>
+        <item x="499"/>
+        <item x="404"/>
+        <item x="165"/>
+        <item x="465"/>
+        <item x="463"/>
+        <item x="430"/>
+        <item x="503"/>
+        <item x="439"/>
+        <item x="164"/>
+        <item x="55"/>
+        <item x="577"/>
+        <item x="83"/>
+        <item x="139"/>
+        <item x="350"/>
+        <item x="57"/>
+        <item x="578"/>
+        <item x="550"/>
+        <item x="586"/>
+        <item x="31"/>
+        <item x="258"/>
+        <item x="171"/>
+        <item x="292"/>
+        <item x="490"/>
+        <item x="371"/>
+        <item x="59"/>
+        <item x="241"/>
+        <item x="573"/>
+        <item x="340"/>
+        <item x="325"/>
+        <item x="11"/>
+        <item x="601"/>
+        <item x="341"/>
+        <item x="245"/>
+        <item x="352"/>
+        <item x="380"/>
+        <item x="263"/>
+        <item x="190"/>
+        <item x="533"/>
+        <item x="398"/>
+        <item x="116"/>
+        <item x="600"/>
+        <item x="187"/>
+        <item x="346"/>
+        <item x="148"/>
+        <item x="517"/>
+        <item x="112"/>
+        <item x="301"/>
+        <item x="224"/>
+        <item x="472"/>
+        <item x="95"/>
+        <item x="567"/>
+        <item x="359"/>
+        <item x="486"/>
+        <item x="445"/>
+        <item x="299"/>
+        <item x="417"/>
+        <item x="195"/>
+        <item x="219"/>
+        <item x="121"/>
+        <item x="22"/>
+        <item x="356"/>
+        <item x="386"/>
+        <item x="493"/>
+        <item x="51"/>
+        <item x="134"/>
+        <item x="3"/>
+        <item x="579"/>
+        <item x="541"/>
+        <item x="18"/>
+        <item x="256"/>
+        <item x="543"/>
+        <item x="342"/>
+        <item x="382"/>
+        <item x="223"/>
+        <item x="129"/>
+        <item x="264"/>
+        <item x="505"/>
+        <item x="394"/>
+        <item x="56"/>
+        <item x="226"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="26"/>
+        <item x="461"/>
+        <item x="79"/>
+        <item x="514"/>
+        <item x="17"/>
+        <item x="173"/>
+        <item x="37"/>
+        <item x="255"/>
+        <item x="457"/>
+        <item x="443"/>
+        <item x="84"/>
+        <item x="568"/>
+        <item x="40"/>
+        <item x="529"/>
+        <item x="254"/>
+        <item x="539"/>
+        <item x="45"/>
+        <item x="367"/>
+        <item x="469"/>
+        <item x="565"/>
+        <item x="160"/>
+        <item x="136"/>
+        <item x="156"/>
+        <item x="178"/>
+        <item x="85"/>
+        <item x="357"/>
+        <item x="378"/>
+        <item x="294"/>
+        <item x="393"/>
+        <item x="143"/>
+        <item x="10"/>
+        <item x="247"/>
+        <item x="180"/>
+        <item x="455"/>
+        <item x="166"/>
+        <item x="582"/>
+        <item x="456"/>
+        <item x="562"/>
+        <item x="519"/>
+        <item x="531"/>
+        <item x="487"/>
+        <item x="153"/>
+        <item x="170"/>
+        <item x="360"/>
+        <item x="453"/>
+        <item x="570"/>
+        <item x="4"/>
+        <item x="306"/>
+        <item x="310"/>
+        <item x="507"/>
+        <item x="176"/>
+        <item x="546"/>
+        <item x="375"/>
+        <item x="86"/>
+        <item x="477"/>
+        <item x="451"/>
+        <item x="520"/>
+        <item x="304"/>
+        <item x="2"/>
+        <item x="416"/>
+        <item x="488"/>
+        <item x="501"/>
+        <item x="21"/>
+        <item x="399"/>
+        <item x="515"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="64">
+        <item x="61"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="62"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="64">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:Count" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1945,7 +5991,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1979,6 +6025,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2013,9 +6060,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2188,14 +6236,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B605"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G605"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2211,7 +6266,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2219,7 +6274,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +6282,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2235,527 +6290,917 @@
         <v>624</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>353</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="F6" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>311</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>310</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>214</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="F13" s="3">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="F15" s="3">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="F17" s="3">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="F18" s="3">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="F19" s="3">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="F20" s="3">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="F21" s="3">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="F22" s="3">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="F23" s="3">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="F24" s="3">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="F25" s="3">
+        <v>21</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="F26" s="3">
+        <v>22</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="F27" s="3">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="F28" s="3">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="F29" s="3">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="F30" s="3">
+        <v>29</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="F31" s="3">
+        <v>31</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="F32" s="3">
+        <v>37</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="F33" s="3">
+        <v>39</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="F34" s="3">
+        <v>40</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="F35" s="3">
+        <v>42</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="F36" s="3">
+        <v>44</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="F37" s="3">
+        <v>45</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="F38" s="3">
+        <v>47</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="F39" s="3">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="F40" s="3">
+        <v>53</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="F41" s="3">
+        <v>56</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="F42" s="3">
+        <v>60</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="F43" s="3">
+        <v>63</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="F44" s="3">
+        <v>66</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="F45" s="3">
+        <v>68</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="F46" s="3">
+        <v>72</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="F47" s="3">
+        <v>73</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="F48" s="3">
+        <v>74</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="F49" s="3">
+        <v>77</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="F50" s="3">
+        <v>85</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="F51" s="3">
+        <v>96</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="F52" s="3">
+        <v>101</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="F53" s="3">
+        <v>124</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="F54" s="3">
+        <v>128</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="F55" s="3">
+        <v>129</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="F56" s="3">
+        <v>130</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="F57" s="3">
+        <v>131</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="F58" s="3">
+        <v>138</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="F59" s="3">
+        <v>170</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="F60" s="3">
+        <v>214</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="F61" s="3">
+        <v>225</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="F62" s="3">
+        <v>310</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="F63" s="3">
+        <v>311</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="F64" s="3">
+        <v>353</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="F65" s="3">
+        <v>624</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="F66" s="3">
+        <v>673</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="F67" s="3">
+        <v>985</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="F68" s="3">
+        <v>1019</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="F69" s="3">
+        <v>43741</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="F70" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G70" s="4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2763,7 +7208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2771,7 +7216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2779,7 +7224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2787,7 +7232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2795,7 +7240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2803,7 +7248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2811,7 +7256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2819,7 +7264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2827,7 +7272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -7036,6 +11481,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>